--- a/biology/Zoologie/Acosmeryx_shervillii/Acosmeryx_shervillii.xlsx
+++ b/biology/Zoologie/Acosmeryx_shervillii/Acosmeryx_shervillii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acosmeryx shervillii est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Acosmeryx. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Face dorsale du mâle MHNT
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Il se rencontre depuis l'Inde jusqu'aux îles de la Sonde, à Hong Kong, aux Philippines et au Sulawesi.
@@ -578,9 +594,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles se nourrissent sur Saurauia, Dillenia, Leeaceae, Cayratia, Cissus et certaines espèces de Vitis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent sur Saurauia, Dillenia, Leeaceae, Cayratia, Cissus et certaines espèces de Vitis.
 </t>
         </is>
       </c>
@@ -609,13 +627,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Acosmeryx shervillii a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1875[2].
-Synonymie
-Acosmeryx cinerea Butler, 1875[3]
-Acosmeryx pseudonaga Butler, 1881[4]
-Acosmeryx miskini brooksi Clark, 1922[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Acosmeryx shervillii a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1875.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acosmeryx_shervillii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmeryx_shervillii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acosmeryx cinerea Butler, 1875
+Acosmeryx pseudonaga Butler, 1881
+Acosmeryx miskini brooksi Clark, 1922
 Acosmeryx socrates obliqua Dupont, 1941</t>
         </is>
       </c>
